--- a/biology/Botanique/Santalaceae/Santalaceae.xlsx
+++ b/biology/Botanique/Santalaceae/Santalaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Santalacées regroupe des plantes dicotylédones ; elle comprend 1100 espèces réparties en une quarantaine de genres.
 Ce sont des arbres, des arbustes et des plantes herbacées, parfois à feuilles réduites, partiellement parasites des racines ou des parties aériennes de l'hôte. Elles vivent des régions tempérées à tropicales.
@@ -515,9 +527,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Santalum nom latin du « bois de santal, lequel aurait une origine possible dans le mot sanskrit candanam, « bois d'encens »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Santalum nom latin du « bois de santal, lequel aurait une origine possible dans le mot sanskrit candanam, « bois d'encens ».
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la classification phylogénétique, les Viscacées sont maintenant intégrées à cette famille.
 </t>
@@ -577,9 +593,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (29 avr. 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (29 avr. 2010) :
 Acanthosyris
 Amphorogyne
 Anthobolus
@@ -627,7 +645,7 @@
 Thesidium
 Thesium
 Viscum
-Selon Angiosperm Phylogeny Website                        (21 mai 2010)[3] :
+Selon Angiosperm Phylogeny Website                        (21 mai 2010) :
 Acanthosyris (Eichler) Griseb.
 Amphorogyne Stauffer &amp; Hurl.
 Anthobolus R. Brown
@@ -672,7 +690,7 @@
 Thesidium Sond.
 Thesium L.
 Viscum L.
-Selon DELTA Angio           (29 avr. 2010)[4] :
+Selon DELTA Angio           (29 avr. 2010) :
 Acanthosyris
 Amphorogyne
 Antholobus
@@ -711,7 +729,7 @@
 Spirogardnera
 Thesidium
 Thesium
-Selon ITIS      (29 nov. 2017)[5] :
+Selon ITIS      (29 nov. 2017) :
 Antidaphne Poepp. &amp; Endl.
 Arceuthobium M. Bieb.
 Buckleya Torr.
